--- a/LF/PreTAS/Mozambique/November 2021/mz_lf_pretas_1_site_202111.xlsx
+++ b/LF/PreTAS/Mozambique/November 2021/mz_lf_pretas_1_site_202111.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="323">
   <si>
     <t>type</t>
   </si>
@@ -180,39 +180,21 @@
     <t>Does the school or community consent to participating in this survey?</t>
   </si>
   <si>
-    <t>A escola ou comunidade consentiu participar neste inquerito?</t>
-  </si>
-  <si>
-    <t>c_population</t>
-  </si>
-  <si>
-    <t>Depending on the age groups targeted, approximately how many eligible participants are enrolled in this school or live in this village?</t>
-  </si>
-  <si>
-    <t>De acordo com o grupo alvo, aproximadamente quantos participantes elegiveis estão matriculados ou vivem nesta comunidade?</t>
+    <t>A comunidade consentiu participar neste inquérito?</t>
+  </si>
+  <si>
+    <t>c_present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approximately how many people aged 5 years and over live in this community </t>
+  </si>
+  <si>
+    <t>Aproximadamente quantas pessoas com idade igual ou superior a 5 anos vivem nesta comunidade</t>
   </si>
   <si>
     <t>${c_consent} = 'Sim'</t>
   </si>
   <si>
-    <t>c_present</t>
-  </si>
-  <si>
-    <t>Depending on the age groups targeted, how many eligible participants are present in this school or community?</t>
-  </si>
-  <si>
-    <t>De acordo com o grupo alvo, quantos participantes elegiveis estão presentes nesta escola ou  comunidade?</t>
-  </si>
-  <si>
-    <t>. &lt;= ${c_population}</t>
-  </si>
-  <si>
-    <t>The population can't exceed the presents</t>
-  </si>
-  <si>
-    <t>A população não pode ultrapassar os presentes</t>
-  </si>
-  <si>
     <t>geopoint</t>
   </si>
   <si>
@@ -996,10 +978,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(Nov 2021) Pre-TAS FL - 1. Conglomerado</t>
-  </si>
-  <si>
-    <t>mz_lf_pretas_1_site_202111</t>
+    <t>(Nov 2021) Pre-TAS FL - 1. Conglomerado V2</t>
+  </si>
+  <si>
+    <t>mz_lf_pretas_1_site_202111_v2</t>
   </si>
   <si>
     <t>Portuguese</t>
@@ -1011,8 +993,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
@@ -1053,17 +1035,25 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1076,24 +1066,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1109,7 +1090,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1123,9 +1111,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1133,34 +1120,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1174,10 +1133,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1188,9 +1148,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1199,6 +1165,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1225,7 +1207,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1237,31 +1357,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1273,139 +1375,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1434,35 +1416,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1497,15 +1455,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1523,6 +1472,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1531,151 +1489,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2083,14 +2065,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2378,7 +2360,7 @@
       <c r="O8" s="21"/>
       <c r="P8" s="21"/>
     </row>
-    <row r="9" s="3" customFormat="1" ht="47.25" spans="1:16">
+    <row r="9" s="3" customFormat="1" ht="31.5" spans="1:16">
       <c r="A9" s="21" t="s">
         <v>16</v>
       </c>
@@ -2408,31 +2390,29 @@
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
     </row>
-    <row r="10" s="3" customFormat="1" ht="47.25" spans="1:16">
+    <row r="10" s="3" customFormat="1" ht="31.5" spans="1:16">
       <c r="A10" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="B10" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="25"/>
+      <c r="C10" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>62</v>
+      </c>
       <c r="E10" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="30"/>
+        <v>63</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="G10" s="21"/>
-      <c r="H10" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>64</v>
-      </c>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
       <c r="K10" s="3" t="s">
         <v>58</v>
       </c>
@@ -2444,74 +2424,64 @@
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
     </row>
-    <row r="11" s="3" customFormat="1" ht="31.5" spans="1:16">
-      <c r="A11" s="21" t="s">
+    <row r="11" s="3" customFormat="1" ht="31.5" spans="1:13">
+      <c r="A11" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="26" t="s">
         <v>66</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="25"/>
+      <c r="E11" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="F11" s="30"/>
+      <c r="K11" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="M11" s="26"/>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="1:16">
+      <c r="A12" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L11" s="21"/>
-      <c r="M11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-    </row>
-    <row r="12" s="3" customFormat="1" ht="31.5" spans="1:13">
-      <c r="A12" s="3" t="s">
+      <c r="B12" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="C12" s="25" t="s">
         <v>72</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>73</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F12" s="30"/>
-      <c r="K12" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="M12" s="26"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
     </row>
     <row r="13" s="3" customFormat="1" spans="1:16">
       <c r="A13" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>78</v>
-      </c>
       <c r="D13" s="25"/>
-      <c r="E13" s="30" t="s">
-        <v>79</v>
-      </c>
+      <c r="E13" s="30"/>
       <c r="F13" s="30"/>
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
@@ -2526,13 +2496,13 @@
     </row>
     <row r="14" s="3" customFormat="1" spans="1:16">
       <c r="A14" s="21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="30"/>
@@ -2547,30 +2517,6 @@
       <c r="N14" s="21"/>
       <c r="O14" s="21"/>
       <c r="P14" s="21"/>
-    </row>
-    <row r="15" s="3" customFormat="1" spans="1:16">
-      <c r="A15" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2601,7 +2547,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -2613,41 +2559,41 @@
         <v>4</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:1">
@@ -2655,16 +2601,16 @@
     </row>
     <row r="5" s="4" customFormat="1" spans="1:7">
       <c r="A5" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
@@ -2672,16 +2618,16 @@
     </row>
     <row r="6" s="4" customFormat="1" spans="1:7">
       <c r="A6" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
@@ -2689,16 +2635,16 @@
     </row>
     <row r="7" s="4" customFormat="1" spans="1:7">
       <c r="A7" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -2706,16 +2652,16 @@
     </row>
     <row r="8" s="4" customFormat="1" spans="1:7">
       <c r="A8" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
@@ -2723,16 +2669,16 @@
     </row>
     <row r="9" s="4" customFormat="1" spans="1:7">
       <c r="A9" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -2740,16 +2686,16 @@
     </row>
     <row r="10" s="4" customFormat="1" spans="1:7">
       <c r="A10" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -2757,16 +2703,16 @@
     </row>
     <row r="11" s="4" customFormat="1" spans="1:7">
       <c r="A11" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
@@ -2783,1463 +2729,1463 @@
     </row>
     <row r="13" s="4" customFormat="1" spans="1:7">
       <c r="A13" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
     <row r="14" s="4" customFormat="1" spans="1:7">
       <c r="A14" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
     <row r="15" s="4" customFormat="1" spans="1:7">
       <c r="A15" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
     </row>
     <row r="16" s="4" customFormat="1" spans="1:7">
       <c r="A16" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
     </row>
     <row r="17" s="4" customFormat="1" spans="1:7">
       <c r="A17" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
     </row>
     <row r="18" s="4" customFormat="1" spans="1:7">
       <c r="A18" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
     </row>
     <row r="19" s="4" customFormat="1" spans="1:7">
       <c r="A19" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
     </row>
     <row r="20" s="4" customFormat="1" spans="1:7">
       <c r="A20" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
     </row>
     <row r="21" s="4" customFormat="1" spans="1:7">
       <c r="A21" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
     </row>
     <row r="22" s="4" customFormat="1" spans="1:7">
       <c r="A22" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
     </row>
     <row r="23" s="4" customFormat="1" spans="1:7">
       <c r="A23" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
     </row>
     <row r="24" s="4" customFormat="1" spans="1:7">
       <c r="A24" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
     </row>
     <row r="25" s="4" customFormat="1" spans="1:7">
       <c r="A25" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
     </row>
     <row r="26" s="4" customFormat="1" spans="1:7">
       <c r="A26" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
     </row>
     <row r="27" s="4" customFormat="1" spans="1:7">
       <c r="A27" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
     </row>
     <row r="28" s="4" customFormat="1" spans="1:7">
       <c r="A28" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
     </row>
     <row r="29" s="4" customFormat="1" spans="1:7">
       <c r="A29" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
     </row>
     <row r="30" s="4" customFormat="1" spans="1:7">
       <c r="A30" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
     </row>
     <row r="31" s="4" customFormat="1" spans="1:7">
       <c r="A31" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
     </row>
     <row r="32" s="4" customFormat="1" spans="1:7">
       <c r="A32" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
     </row>
     <row r="33" s="4" customFormat="1" spans="1:7">
       <c r="A33" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
     </row>
     <row r="34" s="4" customFormat="1" spans="1:7">
       <c r="A34" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
     </row>
     <row r="35" s="4" customFormat="1" spans="1:7">
       <c r="A35" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
     </row>
     <row r="36" s="4" customFormat="1" spans="1:7">
       <c r="A36" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
     </row>
     <row r="37" s="4" customFormat="1" spans="1:7">
       <c r="A37" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
     </row>
     <row r="38" s="4" customFormat="1" spans="1:7">
       <c r="A38" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
     </row>
     <row r="39" s="4" customFormat="1" spans="1:7">
       <c r="A39" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
     </row>
     <row r="40" s="4" customFormat="1" spans="1:7">
       <c r="A40" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
     </row>
     <row r="41" s="4" customFormat="1" spans="1:7">
       <c r="A41" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
     </row>
     <row r="42" s="4" customFormat="1" spans="1:7">
       <c r="A42" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
     </row>
     <row r="43" s="4" customFormat="1" spans="1:7">
       <c r="A43" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
     </row>
     <row r="44" s="4" customFormat="1" spans="1:7">
       <c r="A44" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
     </row>
     <row r="45" s="4" customFormat="1" spans="1:7">
       <c r="A45" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
     </row>
     <row r="46" s="4" customFormat="1" spans="1:7">
       <c r="A46" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
     </row>
     <row r="47" s="4" customFormat="1" spans="1:7">
       <c r="A47" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
     </row>
     <row r="48" s="4" customFormat="1" spans="1:7">
       <c r="A48" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
     </row>
     <row r="49" s="4" customFormat="1" spans="1:7">
       <c r="A49" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
     </row>
     <row r="50" s="4" customFormat="1" spans="1:7">
       <c r="A50" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
     </row>
     <row r="51" s="4" customFormat="1" spans="1:7">
       <c r="A51" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
     </row>
     <row r="52" s="4" customFormat="1" spans="1:7">
       <c r="A52" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
     </row>
     <row r="53" s="4" customFormat="1" spans="1:7">
       <c r="A53" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
     </row>
     <row r="54" s="4" customFormat="1" spans="1:7">
       <c r="A54" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
     </row>
     <row r="55" s="4" customFormat="1" spans="1:7">
       <c r="A55" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
     </row>
     <row r="56" s="4" customFormat="1" spans="1:7">
       <c r="A56" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
     </row>
     <row r="57" s="4" customFormat="1" spans="1:7">
       <c r="A57" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
     </row>
     <row r="58" s="4" customFormat="1" spans="1:7">
       <c r="A58" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
     </row>
     <row r="59" s="4" customFormat="1" spans="1:7">
       <c r="A59" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
     </row>
     <row r="60" s="4" customFormat="1" spans="1:7">
       <c r="A60" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
     </row>
     <row r="61" s="4" customFormat="1" spans="1:7">
       <c r="A61" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
     </row>
     <row r="62" s="4" customFormat="1" spans="1:7">
       <c r="A62" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
     </row>
     <row r="63" s="4" customFormat="1" spans="1:7">
       <c r="A63" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
     </row>
     <row r="64" s="4" customFormat="1" spans="1:7">
       <c r="A64" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
     </row>
     <row r="65" s="4" customFormat="1" spans="1:7">
       <c r="A65" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
     </row>
     <row r="66" s="4" customFormat="1" spans="1:7">
       <c r="A66" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
     </row>
     <row r="67" s="4" customFormat="1" spans="1:7">
       <c r="A67" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
     </row>
     <row r="68" s="4" customFormat="1" spans="1:7">
       <c r="A68" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
     </row>
     <row r="69" s="4" customFormat="1" spans="1:7">
       <c r="A69" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
     </row>
     <row r="70" s="4" customFormat="1" spans="1:7">
       <c r="A70" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
     </row>
     <row r="71" s="4" customFormat="1" spans="1:7">
       <c r="A71" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
     </row>
     <row r="72" s="4" customFormat="1" spans="1:7">
       <c r="A72" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
     </row>
     <row r="73" s="4" customFormat="1" spans="1:7">
       <c r="A73" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
     </row>
     <row r="74" s="4" customFormat="1" spans="1:7">
       <c r="A74" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
     </row>
     <row r="75" s="4" customFormat="1" spans="1:7">
       <c r="A75" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
     </row>
     <row r="76" s="4" customFormat="1" spans="1:7">
       <c r="A76" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
     </row>
     <row r="77" s="4" customFormat="1" spans="1:7">
       <c r="A77" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
     </row>
     <row r="78" s="4" customFormat="1" spans="1:7">
       <c r="A78" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
     </row>
     <row r="79" s="4" customFormat="1" spans="1:7">
       <c r="A79" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
     </row>
     <row r="80" s="4" customFormat="1" spans="1:7">
       <c r="A80" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
     </row>
     <row r="81" s="4" customFormat="1" spans="1:7">
       <c r="A81" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
     </row>
     <row r="82" s="4" customFormat="1" spans="1:7">
       <c r="A82" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
     </row>
     <row r="83" s="4" customFormat="1" spans="1:7">
       <c r="A83" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
     </row>
     <row r="84" s="4" customFormat="1" spans="1:7">
       <c r="A84" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
     </row>
     <row r="85" s="4" customFormat="1" spans="1:7">
       <c r="A85" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
     </row>
     <row r="86" s="4" customFormat="1" spans="1:7">
       <c r="A86" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
     </row>
     <row r="87" s="4" customFormat="1" spans="1:7">
       <c r="A87" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
     </row>
     <row r="88" s="4" customFormat="1" spans="1:7">
       <c r="A88" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
     </row>
     <row r="89" s="4" customFormat="1" spans="1:7">
       <c r="A89" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F89" s="9"/>
       <c r="G89" s="9"/>
@@ -4255,2927 +4201,2927 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E91" s="13"/>
       <c r="F91" s="13" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G91" s="13"/>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D92" s="16" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E92" s="13"/>
       <c r="F92" s="13" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G92" s="13"/>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E93" s="13"/>
       <c r="F93" s="13" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G93" s="13"/>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D94" s="16" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E94" s="13"/>
       <c r="F94" s="13" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G94" s="13"/>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D95" s="16" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E95" s="13"/>
       <c r="F95" s="13" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G95" s="13"/>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D96" s="16" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E96" s="13"/>
       <c r="F96" s="13" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G96" s="13"/>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D97" s="16" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E97" s="13"/>
       <c r="F97" s="13" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G97" s="13"/>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D98" s="16" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E98" s="13"/>
       <c r="F98" s="13" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G98" s="13"/>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D99" s="16" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E99" s="13"/>
       <c r="F99" s="13" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G99" s="13"/>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D100" s="16" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E100" s="13"/>
       <c r="F100" s="13" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G100" s="13"/>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D101" s="16" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E101" s="13"/>
       <c r="F101" s="13" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G101" s="13"/>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D102" s="16" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E102" s="13"/>
       <c r="F102" s="13" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G102" s="13"/>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D103" s="16" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E103" s="13"/>
       <c r="F103" s="13" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G103" s="13"/>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D104" s="16" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E104" s="13"/>
       <c r="F104" s="13" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G104" s="13"/>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D105" s="16" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E105" s="13"/>
       <c r="F105" s="13" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G105" s="13"/>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D106" s="16" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E106" s="13"/>
       <c r="F106" s="13" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G106" s="13"/>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D107" s="16" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E107" s="13"/>
       <c r="F107" s="13" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G107" s="13"/>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D108" s="16" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E108" s="13"/>
       <c r="F108" s="13" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G108" s="13"/>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D109" s="16" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E109" s="13"/>
       <c r="F109" s="13" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="G109" s="13"/>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D110" s="16" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E110" s="13"/>
       <c r="F110" s="13" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G110" s="13"/>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D111" s="16" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E111" s="13"/>
       <c r="F111" s="13" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G111" s="13"/>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D112" s="16" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E112" s="13"/>
       <c r="F112" s="13" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G112" s="13"/>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D113" s="16" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E113" s="13"/>
       <c r="F113" s="13" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G113" s="13"/>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D114" s="16" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E114" s="13"/>
       <c r="F114" s="13" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G114" s="13"/>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D115" s="16" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E115" s="13"/>
       <c r="F115" s="13" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G115" s="13"/>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D116" s="16" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E116" s="13"/>
       <c r="F116" s="13" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G116" s="13"/>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D117" s="16" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E117" s="13"/>
       <c r="F117" s="13" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G117" s="13"/>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D118" s="16" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E118" s="13"/>
       <c r="F118" s="13" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G118" s="13"/>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D119" s="16" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E119" s="13"/>
       <c r="F119" s="13" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G119" s="13"/>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C120" s="15" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D120" s="16" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E120" s="13"/>
       <c r="F120" s="13" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G120" s="13"/>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D121" s="16" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E121" s="13"/>
       <c r="F121" s="13" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G121" s="13"/>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C122" s="15" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D122" s="16" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E122" s="13"/>
       <c r="F122" s="13" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G122" s="13"/>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D123" s="16" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E123" s="13"/>
       <c r="F123" s="13" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G123" s="13"/>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C124" s="15" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D124" s="16" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E124" s="13"/>
       <c r="F124" s="13" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G124" s="13"/>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B125" s="13" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C125" s="15" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D125" s="16" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E125" s="13"/>
       <c r="F125" s="13" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G125" s="13"/>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C126" s="15" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D126" s="16" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E126" s="13"/>
       <c r="F126" s="13" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G126" s="13"/>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B127" s="13" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C127" s="15" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D127" s="16" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E127" s="13"/>
       <c r="F127" s="13" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G127" s="13"/>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C128" s="15" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D128" s="16" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E128" s="13"/>
       <c r="F128" s="13" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G128" s="13"/>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C129" s="15" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D129" s="16" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E129" s="13"/>
       <c r="F129" s="13" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G129" s="13"/>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C130" s="15" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D130" s="16" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E130" s="13"/>
       <c r="F130" s="13" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G130" s="13"/>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B131" s="13" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C131" s="15" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D131" s="16" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E131" s="13"/>
       <c r="F131" s="13" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G131" s="13"/>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C132" s="15" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D132" s="16" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E132" s="13"/>
       <c r="F132" s="13" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G132" s="13"/>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B133" s="13" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C133" s="15" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D133" s="16" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E133" s="13"/>
       <c r="F133" s="13" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G133" s="13"/>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C134" s="15" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D134" s="16" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E134" s="13"/>
       <c r="F134" s="13" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G134" s="13"/>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C135" s="15" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D135" s="16" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E135" s="13"/>
       <c r="F135" s="13" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G135" s="13"/>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C136" s="15" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D136" s="16" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E136" s="13"/>
       <c r="F136" s="13" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G136" s="13"/>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B137" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C137" s="15" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D137" s="16" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E137" s="13"/>
       <c r="F137" s="13" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G137" s="13"/>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B138" s="13" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C138" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D138" s="16" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E138" s="13"/>
       <c r="F138" s="13" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G138" s="13"/>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C139" s="15" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D139" s="16" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E139" s="13"/>
       <c r="F139" s="13" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G139" s="13"/>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C140" s="15" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D140" s="16" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E140" s="13"/>
       <c r="F140" s="13" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G140" s="13"/>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C141" s="15" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D141" s="16" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E141" s="13"/>
       <c r="F141" s="13" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G141" s="13"/>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C142" s="15" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D142" s="16" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E142" s="13"/>
       <c r="F142" s="13" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G142" s="13"/>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C143" s="15" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D143" s="16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E143" s="13"/>
       <c r="F143" s="13" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G143" s="13"/>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C144" s="15" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D144" s="16" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E144" s="13"/>
       <c r="F144" s="13" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G144" s="13"/>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C145" s="15" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D145" s="16" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E145" s="13"/>
       <c r="F145" s="13" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G145" s="13"/>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C146" s="15" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D146" s="16" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E146" s="13"/>
       <c r="F146" s="13" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G146" s="13"/>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C147" s="15" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D147" s="16" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E147" s="13"/>
       <c r="F147" s="13" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G147" s="13"/>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C148" s="15" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D148" s="16" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E148" s="13"/>
       <c r="F148" s="13" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G148" s="13"/>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C149" s="15" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D149" s="16" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E149" s="13"/>
       <c r="F149" s="13" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G149" s="13"/>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C150" s="15" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D150" s="16" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E150" s="13"/>
       <c r="F150" s="13" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G150" s="13"/>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B151" s="13" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C151" s="15" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D151" s="16" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E151" s="13"/>
       <c r="F151" s="13" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G151" s="13"/>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C152" s="15" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D152" s="16" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E152" s="13"/>
       <c r="F152" s="13" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G152" s="13"/>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B153" s="13" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C153" s="15" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D153" s="16" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E153" s="13"/>
       <c r="F153" s="13" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G153" s="13"/>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C154" s="15" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D154" s="16" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E154" s="13"/>
       <c r="F154" s="13" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G154" s="13"/>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B155" s="13" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C155" s="15" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D155" s="16" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E155" s="13"/>
       <c r="F155" s="13" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G155" s="13"/>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B156" s="13" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C156" s="15" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D156" s="16" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E156" s="13"/>
       <c r="F156" s="13" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G156" s="13"/>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B157" s="13" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C157" s="15" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D157" s="16" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E157" s="13"/>
       <c r="F157" s="13" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G157" s="13"/>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C158" s="15" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D158" s="16" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E158" s="13"/>
       <c r="F158" s="13" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G158" s="13"/>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B159" s="13" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C159" s="15" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D159" s="16" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E159" s="13"/>
       <c r="F159" s="13" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G159" s="13"/>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C160" s="15" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D160" s="16" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E160" s="13"/>
       <c r="F160" s="13" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G160" s="13"/>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B161" s="13" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C161" s="15" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D161" s="16" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E161" s="13"/>
       <c r="F161" s="13" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G161" s="13"/>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C162" s="15" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D162" s="16" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E162" s="13"/>
       <c r="F162" s="13" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G162" s="13"/>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B163" s="13" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C163" s="15" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D163" s="16" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E163" s="13"/>
       <c r="F163" s="13" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G163" s="13"/>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B164" s="13" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C164" s="15" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D164" s="16" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E164" s="13"/>
       <c r="F164" s="13" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G164" s="13"/>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B165" s="13" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C165" s="15" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D165" s="16" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E165" s="13"/>
       <c r="F165" s="13" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G165" s="13"/>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B166" s="13" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C166" s="15" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D166" s="16" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E166" s="13"/>
       <c r="F166" s="13" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G166" s="13"/>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B167" s="13" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C167" s="15" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D167" s="16" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E167" s="13"/>
       <c r="F167" s="13" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G167" s="13"/>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C168" s="15" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D168" s="16" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E168" s="13"/>
       <c r="F168" s="13" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G168" s="13"/>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B169" s="13" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C169" s="15" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D169" s="16" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E169" s="13"/>
       <c r="F169" s="13" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G169" s="13"/>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B170" s="13" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C170" s="15" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D170" s="16" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E170" s="13"/>
       <c r="F170" s="13" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G170" s="13"/>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B171" s="13" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C171" s="15" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D171" s="16" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E171" s="13"/>
       <c r="F171" s="13" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G171" s="13"/>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C172" s="15" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D172" s="16" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E172" s="13"/>
       <c r="F172" s="13" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G172" s="13"/>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B173" s="13" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C173" s="15" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D173" s="16" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E173" s="13"/>
       <c r="F173" s="13" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G173" s="13"/>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C174" s="15" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D174" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E174" s="13"/>
       <c r="F174" s="13" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G174" s="13"/>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B175" s="13" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C175" s="15" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D175" s="16" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E175" s="13"/>
       <c r="F175" s="13" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G175" s="13"/>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B176" s="13" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C176" s="15" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D176" s="16" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E176" s="13"/>
       <c r="F176" s="13" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G176" s="13"/>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B177" s="13" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C177" s="15" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D177" s="16" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E177" s="13"/>
       <c r="F177" s="13" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G177" s="13"/>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B178" s="13" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C178" s="15" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D178" s="16" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E178" s="13"/>
       <c r="F178" s="13" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G178" s="13"/>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B179" s="13" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C179" s="15" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D179" s="16" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E179" s="13"/>
       <c r="F179" s="13" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G179" s="13"/>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C180" s="15" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D180" s="16" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E180" s="13"/>
       <c r="F180" s="13" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G180" s="13"/>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B181" s="13" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C181" s="15" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D181" s="16" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E181" s="13"/>
       <c r="F181" s="13" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G181" s="13"/>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C182" s="15" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D182" s="16" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E182" s="13"/>
       <c r="F182" s="13" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G182" s="13"/>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B183" s="13" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C183" s="15" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D183" s="16" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E183" s="13"/>
       <c r="F183" s="13" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G183" s="13"/>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C184" s="15" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D184" s="16" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E184" s="13"/>
       <c r="F184" s="13" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G184" s="13"/>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B185" s="13" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C185" s="15" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D185" s="16" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E185" s="13"/>
       <c r="F185" s="13" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G185" s="13"/>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B186" s="13" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C186" s="15" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D186" s="16" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E186" s="13"/>
       <c r="F186" s="13" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G186" s="13"/>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B187" s="13" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C187" s="15" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D187" s="16" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E187" s="13"/>
       <c r="F187" s="13" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G187" s="13"/>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B188" s="13" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C188" s="15" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D188" s="16" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E188" s="13"/>
       <c r="F188" s="13" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G188" s="13"/>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B189" s="13" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C189" s="15" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D189" s="16" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E189" s="13"/>
       <c r="F189" s="13" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G189" s="13"/>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B190" s="13" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C190" s="15" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D190" s="16" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E190" s="13"/>
       <c r="F190" s="13" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G190" s="13"/>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B191" s="13" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C191" s="15" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D191" s="16" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E191" s="13"/>
       <c r="F191" s="13" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G191" s="13"/>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B192" s="13" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C192" s="15" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D192" s="16" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E192" s="13"/>
       <c r="F192" s="13" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G192" s="13"/>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B193" s="13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C193" s="15" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D193" s="16" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E193" s="13"/>
       <c r="F193" s="13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G193" s="13"/>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B194" s="13" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C194" s="15" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D194" s="16" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E194" s="13"/>
       <c r="F194" s="13" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G194" s="13"/>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B195" s="13" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C195" s="15" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D195" s="16" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E195" s="13"/>
       <c r="F195" s="13" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G195" s="13"/>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B196" s="13" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C196" s="15" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D196" s="16" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E196" s="13"/>
       <c r="F196" s="13" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G196" s="13"/>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B197" s="13" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C197" s="15" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D197" s="16" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E197" s="13"/>
       <c r="F197" s="13" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G197" s="13"/>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B198" s="13" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C198" s="15" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D198" s="16" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E198" s="13"/>
       <c r="F198" s="13" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G198" s="13"/>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B199" s="13" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C199" s="15" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D199" s="16" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E199" s="13"/>
       <c r="F199" s="13" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G199" s="13"/>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B200" s="13" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C200" s="15" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D200" s="16" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E200" s="13"/>
       <c r="F200" s="13" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G200" s="13"/>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B201" s="13" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C201" s="15" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D201" s="16" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E201" s="13"/>
       <c r="F201" s="13" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G201" s="13"/>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B202" s="13" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C202" s="15" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D202" s="16" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E202" s="13"/>
       <c r="F202" s="13" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G202" s="13"/>
     </row>
     <row r="203" spans="1:7">
       <c r="A203" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B203" s="13" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C203" s="15" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D203" s="16" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E203" s="13"/>
       <c r="F203" s="13" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G203" s="13"/>
     </row>
     <row r="204" spans="1:7">
       <c r="A204" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B204" s="13" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C204" s="15" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D204" s="16" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E204" s="13"/>
       <c r="F204" s="13" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G204" s="13"/>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B205" s="13" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C205" s="15" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D205" s="16" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E205" s="13"/>
       <c r="F205" s="13" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G205" s="13"/>
     </row>
     <row r="206" spans="1:7">
       <c r="A206" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B206" s="13" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C206" s="15" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D206" s="16" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E206" s="13"/>
       <c r="F206" s="13" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G206" s="13"/>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B207" s="13" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C207" s="15" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D207" s="16" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E207" s="13"/>
       <c r="F207" s="13" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G207" s="13"/>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B208" s="13" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C208" s="15" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D208" s="16" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E208" s="13"/>
       <c r="F208" s="13" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G208" s="13"/>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B209" s="13" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C209" s="15" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D209" s="16" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E209" s="13"/>
       <c r="F209" s="13" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G209" s="13"/>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B210" s="13" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C210" s="15" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D210" s="16" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E210" s="13"/>
       <c r="F210" s="13" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="G210" s="13"/>
     </row>
     <row r="211" spans="1:7">
       <c r="A211" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B211" s="13" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C211" s="15" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D211" s="16" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E211" s="13"/>
       <c r="F211" s="13" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G211" s="13"/>
     </row>
     <row r="212" spans="1:7">
       <c r="A212" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B212" s="13" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C212" s="15" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D212" s="16" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E212" s="13"/>
       <c r="F212" s="13" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G212" s="13"/>
     </row>
     <row r="213" spans="1:7">
       <c r="A213" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B213" s="13" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C213" s="15" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D213" s="16" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E213" s="13"/>
       <c r="F213" s="13" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G213" s="13"/>
     </row>
     <row r="214" spans="1:7">
       <c r="A214" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B214" s="13" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C214" s="15" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D214" s="16" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E214" s="13"/>
       <c r="F214" s="13" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G214" s="13"/>
     </row>
     <row r="215" spans="1:7">
       <c r="A215" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B215" s="13" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C215" s="15" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D215" s="16" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E215" s="13"/>
       <c r="F215" s="13" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G215" s="13"/>
     </row>
     <row r="216" spans="1:7">
       <c r="A216" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B216" s="13" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C216" s="15" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D216" s="16" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E216" s="13"/>
       <c r="F216" s="13" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G216" s="13"/>
     </row>
     <row r="217" spans="1:7">
       <c r="A217" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B217" s="13" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C217" s="15" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D217" s="16" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="E217" s="13"/>
       <c r="F217" s="13" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G217" s="13"/>
     </row>
     <row r="218" spans="1:7">
       <c r="A218" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B218" s="13" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C218" s="15" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D218" s="16" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E218" s="13"/>
       <c r="F218" s="13" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G218" s="13"/>
     </row>
     <row r="219" spans="1:7">
       <c r="A219" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B219" s="13" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C219" s="15" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D219" s="16" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E219" s="13"/>
       <c r="F219" s="13" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G219" s="13"/>
     </row>
     <row r="220" spans="1:7">
       <c r="A220" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B220" s="13" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C220" s="15" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D220" s="16" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E220" s="13"/>
       <c r="F220" s="13" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G220" s="13"/>
     </row>
     <row r="221" spans="1:7">
       <c r="A221" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B221" s="13" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C221" s="15" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D221" s="16" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E221" s="13"/>
       <c r="F221" s="13" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G221" s="13"/>
     </row>
     <row r="222" spans="1:7">
       <c r="A222" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B222" s="13" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C222" s="15" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D222" s="16" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E222" s="13"/>
       <c r="F222" s="13" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G222" s="13"/>
     </row>
     <row r="223" spans="1:7">
       <c r="A223" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B223" s="13" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C223" s="15" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D223" s="16" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="E223" s="13"/>
       <c r="F223" s="13" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G223" s="13"/>
     </row>
     <row r="224" spans="1:7">
       <c r="A224" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B224" s="13" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C224" s="15" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D224" s="16" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E224" s="13"/>
       <c r="F224" s="13" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G224" s="13"/>
     </row>
     <row r="225" spans="1:7">
       <c r="A225" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B225" s="13" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C225" s="15" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D225" s="16" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="E225" s="13"/>
       <c r="F225" s="13" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G225" s="13"/>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B226" s="13" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C226" s="15" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D226" s="16" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E226" s="13"/>
       <c r="F226" s="13" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G226" s="13"/>
     </row>
     <row r="227" spans="1:7">
       <c r="A227" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B227" s="13" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C227" s="15" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D227" s="16" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E227" s="13"/>
       <c r="F227" s="13" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G227" s="13"/>
     </row>
     <row r="228" spans="1:7">
       <c r="A228" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B228" s="13" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C228" s="15" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D228" s="16" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="E228" s="13"/>
       <c r="F228" s="13" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G228" s="13"/>
     </row>
     <row r="229" spans="1:7">
       <c r="A229" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B229" s="13" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C229" s="15" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D229" s="16" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E229" s="13"/>
       <c r="F229" s="13" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G229" s="13"/>
     </row>
     <row r="230" spans="1:7">
       <c r="A230" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B230" s="13" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C230" s="15" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D230" s="16" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="E230" s="13"/>
       <c r="F230" s="13" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G230" s="13"/>
     </row>
     <row r="231" spans="1:7">
       <c r="A231" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B231" s="13" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C231" s="15" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D231" s="16" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E231" s="13"/>
       <c r="F231" s="13" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G231" s="13"/>
     </row>
     <row r="232" spans="1:7">
       <c r="A232" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B232" s="13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C232" s="15" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D232" s="16" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E232" s="13"/>
       <c r="F232" s="13" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G232" s="13"/>
     </row>
     <row r="233" spans="1:7">
       <c r="A233" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B233" s="13" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C233" s="15" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D233" s="16" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E233" s="13"/>
       <c r="F233" s="13" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G233" s="13"/>
     </row>
     <row r="234" spans="1:7">
       <c r="A234" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B234" s="13" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C234" s="15" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D234" s="16" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E234" s="13"/>
       <c r="F234" s="13" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G234" s="13"/>
     </row>
     <row r="235" spans="1:7">
       <c r="A235" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B235" s="13" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C235" s="15" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D235" s="16" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="E235" s="13"/>
       <c r="F235" s="13" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G235" s="13"/>
     </row>
     <row r="236" spans="1:7">
       <c r="A236" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B236" s="13" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C236" s="15" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D236" s="16" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E236" s="13"/>
       <c r="F236" s="13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G236" s="13"/>
     </row>
     <row r="237" spans="1:7">
       <c r="A237" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B237" s="13" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C237" s="15" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D237" s="16" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="E237" s="13"/>
       <c r="F237" s="13" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G237" s="13"/>
     </row>
     <row r="238" spans="1:7">
       <c r="A238" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B238" s="13" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C238" s="15" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D238" s="16" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E238" s="13"/>
       <c r="F238" s="13" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G238" s="13"/>
     </row>
     <row r="239" spans="1:7">
       <c r="A239" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B239" s="13" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C239" s="15" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D239" s="16" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E239" s="13"/>
       <c r="F239" s="13" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G239" s="13"/>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B240" s="13" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C240" s="15" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D240" s="16" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E240" s="13"/>
       <c r="F240" s="13" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G240" s="13"/>
     </row>
     <row r="241" spans="1:7">
       <c r="A241" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B241" s="13" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C241" s="15" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D241" s="16" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="E241" s="13"/>
       <c r="F241" s="13" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G241" s="13"/>
     </row>
     <row r="242" spans="1:7">
       <c r="A242" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B242" s="13" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C242" s="15" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D242" s="16" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E242" s="13"/>
       <c r="F242" s="13" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G242" s="13"/>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B243" s="13" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C243" s="15" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D243" s="16" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="E243" s="13"/>
       <c r="F243" s="13" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G243" s="13"/>
     </row>
     <row r="244" spans="1:7">
       <c r="A244" s="13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B244" s="13" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C244" s="15" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D244" s="16" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="E244" s="13"/>
       <c r="F244" s="13" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G244" s="13"/>
     </row>
@@ -7190,7 +7136,7 @@
     </row>
     <row r="246" spans="1:7">
       <c r="A246" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B246" s="13">
         <v>101</v>
@@ -7204,12 +7150,12 @@
       <c r="E246" s="13"/>
       <c r="F246" s="13"/>
       <c r="G246" s="13" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="247" spans="1:7">
       <c r="A247" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B247" s="13">
         <v>102</v>
@@ -7223,12 +7169,12 @@
       <c r="E247" s="13"/>
       <c r="F247" s="13"/>
       <c r="G247" s="13" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="248" spans="1:7">
       <c r="A248" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B248" s="13">
         <v>103</v>
@@ -7242,12 +7188,12 @@
       <c r="E248" s="13"/>
       <c r="F248" s="13"/>
       <c r="G248" s="13" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="249" spans="1:7">
       <c r="A249" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B249" s="13">
         <v>104</v>
@@ -7261,12 +7207,12 @@
       <c r="E249" s="13"/>
       <c r="F249" s="13"/>
       <c r="G249" s="13" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="250" spans="1:7">
       <c r="A250" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B250" s="13">
         <v>105</v>
@@ -7280,12 +7226,12 @@
       <c r="E250" s="13"/>
       <c r="F250" s="13"/>
       <c r="G250" s="13" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="251" spans="1:7">
       <c r="A251" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B251" s="13">
         <v>106</v>
@@ -7299,12 +7245,12 @@
       <c r="E251" s="13"/>
       <c r="F251" s="13"/>
       <c r="G251" s="13" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B252" s="13">
         <v>107</v>
@@ -7318,12 +7264,12 @@
       <c r="E252" s="13"/>
       <c r="F252" s="13"/>
       <c r="G252" s="13" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="253" spans="1:7">
       <c r="A253" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B253" s="13">
         <v>108</v>
@@ -7337,12 +7283,12 @@
       <c r="E253" s="13"/>
       <c r="F253" s="13"/>
       <c r="G253" s="13" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="254" spans="1:7">
       <c r="A254" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B254" s="13">
         <v>109</v>
@@ -7356,12 +7302,12 @@
       <c r="E254" s="13"/>
       <c r="F254" s="13"/>
       <c r="G254" s="13" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="255" spans="1:7">
       <c r="A255" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B255" s="13">
         <v>110</v>
@@ -7375,12 +7321,12 @@
       <c r="E255" s="13"/>
       <c r="F255" s="13"/>
       <c r="G255" s="13" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="256" spans="1:7">
       <c r="A256" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B256" s="13">
         <v>111</v>
@@ -7394,12 +7340,12 @@
       <c r="E256" s="13"/>
       <c r="F256" s="13"/>
       <c r="G256" s="13" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="257" spans="1:7">
       <c r="A257" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B257" s="13">
         <v>112</v>
@@ -7413,12 +7359,12 @@
       <c r="E257" s="13"/>
       <c r="F257" s="13"/>
       <c r="G257" s="13" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="258" spans="1:7">
       <c r="A258" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B258" s="13">
         <v>113</v>
@@ -7432,12 +7378,12 @@
       <c r="E258" s="13"/>
       <c r="F258" s="13"/>
       <c r="G258" s="13" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="259" spans="1:7">
       <c r="A259" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B259" s="13">
         <v>114</v>
@@ -7451,12 +7397,12 @@
       <c r="E259" s="13"/>
       <c r="F259" s="13"/>
       <c r="G259" s="13" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="260" spans="1:7">
       <c r="A260" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B260" s="13">
         <v>115</v>
@@ -7470,12 +7416,12 @@
       <c r="E260" s="13"/>
       <c r="F260" s="13"/>
       <c r="G260" s="13" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="261" spans="1:7">
       <c r="A261" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B261" s="13">
         <v>116</v>
@@ -7489,12 +7435,12 @@
       <c r="E261" s="13"/>
       <c r="F261" s="13"/>
       <c r="G261" s="13" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="262" spans="1:7">
       <c r="A262" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B262" s="13">
         <v>117</v>
@@ -7508,12 +7454,12 @@
       <c r="E262" s="13"/>
       <c r="F262" s="13"/>
       <c r="G262" s="13" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="263" spans="1:7">
       <c r="A263" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B263" s="13">
         <v>118</v>
@@ -7527,12 +7473,12 @@
       <c r="E263" s="13"/>
       <c r="F263" s="13"/>
       <c r="G263" s="13" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="264" spans="1:7">
       <c r="A264" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B264" s="13">
         <v>119</v>
@@ -7546,12 +7492,12 @@
       <c r="E264" s="13"/>
       <c r="F264" s="13"/>
       <c r="G264" s="13" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="265" spans="1:7">
       <c r="A265" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B265" s="13">
         <v>120</v>
@@ -7565,12 +7511,12 @@
       <c r="E265" s="13"/>
       <c r="F265" s="13"/>
       <c r="G265" s="13" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="266" spans="1:7">
       <c r="A266" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B266" s="13">
         <v>121</v>
@@ -7584,12 +7530,12 @@
       <c r="E266" s="13"/>
       <c r="F266" s="13"/>
       <c r="G266" s="13" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="267" spans="1:7">
       <c r="A267" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B267" s="13">
         <v>122</v>
@@ -7603,12 +7549,12 @@
       <c r="E267" s="13"/>
       <c r="F267" s="13"/>
       <c r="G267" s="13" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="268" spans="1:7">
       <c r="A268" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B268" s="13">
         <v>123</v>
@@ -7622,12 +7568,12 @@
       <c r="E268" s="13"/>
       <c r="F268" s="13"/>
       <c r="G268" s="13" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="269" spans="1:7">
       <c r="A269" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B269" s="13">
         <v>124</v>
@@ -7641,12 +7587,12 @@
       <c r="E269" s="13"/>
       <c r="F269" s="13"/>
       <c r="G269" s="13" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="270" spans="1:7">
       <c r="A270" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B270" s="13">
         <v>125</v>
@@ -7660,12 +7606,12 @@
       <c r="E270" s="13"/>
       <c r="F270" s="13"/>
       <c r="G270" s="13" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="271" spans="1:7">
       <c r="A271" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B271" s="13">
         <v>126</v>
@@ -7679,12 +7625,12 @@
       <c r="E271" s="13"/>
       <c r="F271" s="13"/>
       <c r="G271" s="13" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="272" spans="1:7">
       <c r="A272" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B272" s="13">
         <v>127</v>
@@ -7698,12 +7644,12 @@
       <c r="E272" s="13"/>
       <c r="F272" s="13"/>
       <c r="G272" s="13" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="273" spans="1:7">
       <c r="A273" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B273" s="13">
         <v>128</v>
@@ -7717,12 +7663,12 @@
       <c r="E273" s="13"/>
       <c r="F273" s="13"/>
       <c r="G273" s="13" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="274" spans="1:7">
       <c r="A274" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B274" s="13">
         <v>129</v>
@@ -7736,12 +7682,12 @@
       <c r="E274" s="13"/>
       <c r="F274" s="13"/>
       <c r="G274" s="13" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="275" spans="1:7">
       <c r="A275" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B275" s="13">
         <v>130</v>
@@ -7755,12 +7701,12 @@
       <c r="E275" s="13"/>
       <c r="F275" s="13"/>
       <c r="G275" s="13" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="276" spans="1:7">
       <c r="A276" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B276" s="13">
         <v>131</v>
@@ -7774,12 +7720,12 @@
       <c r="E276" s="13"/>
       <c r="F276" s="13"/>
       <c r="G276" s="13" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="277" spans="1:7">
       <c r="A277" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B277" s="13">
         <v>132</v>
@@ -7793,12 +7739,12 @@
       <c r="E277" s="13"/>
       <c r="F277" s="13"/>
       <c r="G277" s="13" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="278" spans="1:7">
       <c r="A278" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B278" s="13">
         <v>133</v>
@@ -7812,12 +7758,12 @@
       <c r="E278" s="13"/>
       <c r="F278" s="13"/>
       <c r="G278" s="13" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="279" s="4" customFormat="1" spans="1:7">
       <c r="A279" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B279" s="10">
         <v>134</v>
@@ -7831,12 +7777,12 @@
       <c r="E279" s="9"/>
       <c r="F279" s="9"/>
       <c r="G279" s="9" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="280" s="4" customFormat="1" spans="1:7">
       <c r="A280" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B280" s="10">
         <v>135</v>
@@ -7850,12 +7796,12 @@
       <c r="E280" s="9"/>
       <c r="F280" s="9"/>
       <c r="G280" s="9" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="281" s="4" customFormat="1" spans="1:7">
       <c r="A281" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B281" s="10">
         <v>136</v>
@@ -7869,12 +7815,12 @@
       <c r="E281" s="9"/>
       <c r="F281" s="9"/>
       <c r="G281" s="9" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="282" s="4" customFormat="1" spans="1:7">
       <c r="A282" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B282" s="10">
         <v>137</v>
@@ -7888,12 +7834,12 @@
       <c r="E282" s="9"/>
       <c r="F282" s="9"/>
       <c r="G282" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="283" s="4" customFormat="1" spans="1:7">
       <c r="A283" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B283" s="10">
         <v>138</v>
@@ -7907,12 +7853,12 @@
       <c r="E283" s="9"/>
       <c r="F283" s="9"/>
       <c r="G283" s="9" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="284" s="4" customFormat="1" spans="1:7">
       <c r="A284" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B284" s="10">
         <v>139</v>
@@ -7926,12 +7872,12 @@
       <c r="E284" s="9"/>
       <c r="F284" s="9"/>
       <c r="G284" s="9" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="285" s="4" customFormat="1" spans="1:7">
       <c r="A285" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B285" s="10">
         <v>140</v>
@@ -7945,12 +7891,12 @@
       <c r="E285" s="9"/>
       <c r="F285" s="9"/>
       <c r="G285" s="9" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="286" s="4" customFormat="1" spans="1:7">
       <c r="A286" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B286" s="10">
         <v>141</v>
@@ -7964,12 +7910,12 @@
       <c r="E286" s="9"/>
       <c r="F286" s="9"/>
       <c r="G286" s="9" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="287" s="4" customFormat="1" spans="1:7">
       <c r="A287" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B287" s="10">
         <v>142</v>
@@ -7983,12 +7929,12 @@
       <c r="E287" s="9"/>
       <c r="F287" s="9"/>
       <c r="G287" s="9" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="288" s="4" customFormat="1" spans="1:7">
       <c r="A288" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B288" s="10">
         <v>143</v>
@@ -8002,12 +7948,12 @@
       <c r="E288" s="9"/>
       <c r="F288" s="9"/>
       <c r="G288" s="9" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="289" s="4" customFormat="1" spans="1:7">
       <c r="A289" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B289" s="10">
         <v>144</v>
@@ -8021,12 +7967,12 @@
       <c r="E289" s="9"/>
       <c r="F289" s="9"/>
       <c r="G289" s="9" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="290" s="4" customFormat="1" spans="1:7">
       <c r="A290" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B290" s="10">
         <v>145</v>
@@ -8040,12 +7986,12 @@
       <c r="E290" s="9"/>
       <c r="F290" s="9"/>
       <c r="G290" s="9" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="291" s="4" customFormat="1" spans="1:7">
       <c r="A291" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B291" s="10">
         <v>146</v>
@@ -8059,12 +8005,12 @@
       <c r="E291" s="9"/>
       <c r="F291" s="9"/>
       <c r="G291" s="9" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="292" s="4" customFormat="1" spans="1:7">
       <c r="A292" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B292" s="10">
         <v>147</v>
@@ -8078,12 +8024,12 @@
       <c r="E292" s="9"/>
       <c r="F292" s="9"/>
       <c r="G292" s="9" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="293" s="4" customFormat="1" spans="1:7">
       <c r="A293" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B293" s="10">
         <v>148</v>
@@ -8097,12 +8043,12 @@
       <c r="E293" s="9"/>
       <c r="F293" s="9"/>
       <c r="G293" s="9" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="294" s="4" customFormat="1" spans="1:7">
       <c r="A294" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B294" s="10">
         <v>149</v>
@@ -8116,12 +8062,12 @@
       <c r="E294" s="9"/>
       <c r="F294" s="9"/>
       <c r="G294" s="9" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="295" s="4" customFormat="1" spans="1:7">
       <c r="A295" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B295" s="10">
         <v>150</v>
@@ -8135,12 +8081,12 @@
       <c r="E295" s="9"/>
       <c r="F295" s="9"/>
       <c r="G295" s="9" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="296" s="4" customFormat="1" spans="1:7">
       <c r="A296" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B296" s="10">
         <v>151</v>
@@ -8154,12 +8100,12 @@
       <c r="E296" s="9"/>
       <c r="F296" s="9"/>
       <c r="G296" s="9" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="297" s="4" customFormat="1" spans="1:7">
       <c r="A297" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B297" s="10">
         <v>152</v>
@@ -8173,12 +8119,12 @@
       <c r="E297" s="9"/>
       <c r="F297" s="9"/>
       <c r="G297" s="9" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="298" s="4" customFormat="1" spans="1:7">
       <c r="A298" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B298" s="10">
         <v>153</v>
@@ -8192,12 +8138,12 @@
       <c r="E298" s="9"/>
       <c r="F298" s="9"/>
       <c r="G298" s="9" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="299" s="4" customFormat="1" spans="1:7">
       <c r="A299" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B299" s="10">
         <v>154</v>
@@ -8211,12 +8157,12 @@
       <c r="E299" s="9"/>
       <c r="F299" s="9"/>
       <c r="G299" s="9" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="300" s="4" customFormat="1" spans="1:7">
       <c r="A300" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B300" s="10">
         <v>155</v>
@@ -8230,12 +8176,12 @@
       <c r="E300" s="9"/>
       <c r="F300" s="9"/>
       <c r="G300" s="9" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="301" s="4" customFormat="1" spans="1:7">
       <c r="A301" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B301" s="10">
         <v>156</v>
@@ -8249,12 +8195,12 @@
       <c r="E301" s="9"/>
       <c r="F301" s="9"/>
       <c r="G301" s="9" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="302" s="4" customFormat="1" spans="1:7">
       <c r="A302" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B302" s="10">
         <v>157</v>
@@ -8268,12 +8214,12 @@
       <c r="E302" s="9"/>
       <c r="F302" s="9"/>
       <c r="G302" s="9" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="303" s="4" customFormat="1" spans="1:7">
       <c r="A303" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B303" s="10">
         <v>158</v>
@@ -8287,12 +8233,12 @@
       <c r="E303" s="9"/>
       <c r="F303" s="9"/>
       <c r="G303" s="9" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="304" s="4" customFormat="1" spans="1:7">
       <c r="A304" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B304" s="10">
         <v>159</v>
@@ -8306,12 +8252,12 @@
       <c r="E304" s="9"/>
       <c r="F304" s="9"/>
       <c r="G304" s="9" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="305" s="4" customFormat="1" spans="1:7">
       <c r="A305" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B305" s="10">
         <v>160</v>
@@ -8325,12 +8271,12 @@
       <c r="E305" s="9"/>
       <c r="F305" s="9"/>
       <c r="G305" s="9" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="306" spans="1:7">
       <c r="A306" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B306" s="13">
         <v>161</v>
@@ -8344,12 +8290,12 @@
       <c r="E306" s="13"/>
       <c r="F306" s="13"/>
       <c r="G306" s="13" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="307" spans="1:7">
       <c r="A307" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B307" s="13">
         <v>162</v>
@@ -8363,12 +8309,12 @@
       <c r="E307" s="13"/>
       <c r="F307" s="13"/>
       <c r="G307" s="13" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="308" spans="1:7">
       <c r="A308" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B308">
         <v>163</v>
@@ -8380,12 +8326,12 @@
         <v>163</v>
       </c>
       <c r="G308" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="309" spans="1:7">
       <c r="A309" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B309">
         <v>164</v>
@@ -8397,12 +8343,12 @@
         <v>164</v>
       </c>
       <c r="G309" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="310" spans="1:7">
       <c r="A310" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B310">
         <v>165</v>
@@ -8414,12 +8360,12 @@
         <v>165</v>
       </c>
       <c r="G310" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="311" spans="1:7">
       <c r="A311" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B311">
         <v>166</v>
@@ -8431,12 +8377,12 @@
         <v>166</v>
       </c>
       <c r="G311" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="312" spans="1:7">
       <c r="A312" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B312">
         <v>167</v>
@@ -8448,12 +8394,12 @@
         <v>167</v>
       </c>
       <c r="G312" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="313" spans="1:7">
       <c r="A313" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B313">
         <v>168</v>
@@ -8465,12 +8411,12 @@
         <v>168</v>
       </c>
       <c r="G313" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="314" spans="1:7">
       <c r="A314" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B314">
         <v>169</v>
@@ -8482,12 +8428,12 @@
         <v>169</v>
       </c>
       <c r="G314" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="315" spans="1:7">
       <c r="A315" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B315">
         <v>170</v>
@@ -8499,12 +8445,12 @@
         <v>170</v>
       </c>
       <c r="G315" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="316" spans="1:7">
       <c r="A316" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B316">
         <v>171</v>
@@ -8516,12 +8462,12 @@
         <v>171</v>
       </c>
       <c r="G316" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="317" spans="1:7">
       <c r="A317" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B317">
         <v>172</v>
@@ -8533,12 +8479,12 @@
         <v>172</v>
       </c>
       <c r="G317" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="318" spans="1:7">
       <c r="A318" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B318">
         <v>173</v>
@@ -8550,12 +8496,12 @@
         <v>173</v>
       </c>
       <c r="G318" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="319" spans="1:7">
       <c r="A319" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B319">
         <v>174</v>
@@ -8567,12 +8513,12 @@
         <v>174</v>
       </c>
       <c r="G319" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="320" spans="1:7">
       <c r="A320" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B320">
         <v>175</v>
@@ -8584,12 +8530,12 @@
         <v>175</v>
       </c>
       <c r="G320" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="321" spans="1:7">
       <c r="A321" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B321">
         <v>176</v>
@@ -8601,12 +8547,12 @@
         <v>176</v>
       </c>
       <c r="G321" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="322" spans="1:7">
       <c r="A322" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B322">
         <v>177</v>
@@ -8618,12 +8564,12 @@
         <v>177</v>
       </c>
       <c r="G322" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="323" spans="1:7">
       <c r="A323" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B323">
         <v>178</v>
@@ -8635,12 +8581,12 @@
         <v>178</v>
       </c>
       <c r="G323" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="324" spans="1:7">
       <c r="A324" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B324">
         <v>179</v>
@@ -8652,12 +8598,12 @@
         <v>179</v>
       </c>
       <c r="G324" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="325" spans="1:7">
       <c r="A325" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B325">
         <v>180</v>
@@ -8669,12 +8615,12 @@
         <v>180</v>
       </c>
       <c r="G325" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="326" spans="1:7">
       <c r="A326" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B326">
         <v>181</v>
@@ -8686,12 +8632,12 @@
         <v>181</v>
       </c>
       <c r="G326" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="327" spans="1:7">
       <c r="A327" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B327">
         <v>182</v>
@@ -8703,12 +8649,12 @@
         <v>182</v>
       </c>
       <c r="G327" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="328" spans="1:7">
       <c r="A328" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B328">
         <v>183</v>
@@ -8720,12 +8666,12 @@
         <v>183</v>
       </c>
       <c r="G328" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="329" spans="1:7">
       <c r="A329" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B329">
         <v>184</v>
@@ -8737,12 +8683,12 @@
         <v>184</v>
       </c>
       <c r="G329" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="330" spans="1:7">
       <c r="A330" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B330">
         <v>185</v>
@@ -8754,12 +8700,12 @@
         <v>185</v>
       </c>
       <c r="G330" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="331" spans="1:7">
       <c r="A331" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B331">
         <v>186</v>
@@ -8771,12 +8717,12 @@
         <v>186</v>
       </c>
       <c r="G331" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="332" spans="1:7">
       <c r="A332" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B332">
         <v>187</v>
@@ -8788,12 +8734,12 @@
         <v>187</v>
       </c>
       <c r="G332" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="333" spans="1:7">
       <c r="A333" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B333">
         <v>188</v>
@@ -8805,12 +8751,12 @@
         <v>188</v>
       </c>
       <c r="G333" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="334" spans="1:7">
       <c r="A334" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B334">
         <v>189</v>
@@ -8822,12 +8768,12 @@
         <v>189</v>
       </c>
       <c r="G334" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="335" spans="1:7">
       <c r="A335" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B335">
         <v>190</v>
@@ -8839,12 +8785,12 @@
         <v>190</v>
       </c>
       <c r="G335" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="336" spans="1:7">
       <c r="A336" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B336">
         <v>191</v>
@@ -8856,12 +8802,12 @@
         <v>191</v>
       </c>
       <c r="G336" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="337" spans="1:7">
       <c r="A337" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B337">
         <v>192</v>
@@ -8873,12 +8819,12 @@
         <v>192</v>
       </c>
       <c r="G337" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="338" spans="1:7">
       <c r="A338" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B338">
         <v>193</v>
@@ -8890,12 +8836,12 @@
         <v>193</v>
       </c>
       <c r="G338" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="339" spans="1:7">
       <c r="A339" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B339">
         <v>194</v>
@@ -8907,12 +8853,12 @@
         <v>194</v>
       </c>
       <c r="G339" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="340" spans="1:7">
       <c r="A340" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B340">
         <v>195</v>
@@ -8924,12 +8870,12 @@
         <v>195</v>
       </c>
       <c r="G340" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="341" spans="1:7">
       <c r="A341" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B341">
         <v>196</v>
@@ -8941,12 +8887,12 @@
         <v>196</v>
       </c>
       <c r="G341" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="342" spans="1:7">
       <c r="A342" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B342">
         <v>197</v>
@@ -8958,12 +8904,12 @@
         <v>197</v>
       </c>
       <c r="G342" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="343" spans="1:7">
       <c r="A343" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B343">
         <v>198</v>
@@ -8975,12 +8921,12 @@
         <v>198</v>
       </c>
       <c r="G343" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="344" spans="1:7">
       <c r="A344" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B344">
         <v>199</v>
@@ -8992,12 +8938,12 @@
         <v>199</v>
       </c>
       <c r="G344" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="345" spans="1:7">
       <c r="A345" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B345">
         <v>200</v>
@@ -9009,12 +8955,12 @@
         <v>200</v>
       </c>
       <c r="G345" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="346" spans="1:7">
       <c r="A346" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B346">
         <v>201</v>
@@ -9026,12 +8972,12 @@
         <v>201</v>
       </c>
       <c r="G346" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="347" spans="1:7">
       <c r="A347" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B347">
         <v>202</v>
@@ -9043,12 +8989,12 @@
         <v>202</v>
       </c>
       <c r="G347" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="348" spans="1:7">
       <c r="A348" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B348">
         <v>203</v>
@@ -9060,12 +9006,12 @@
         <v>203</v>
       </c>
       <c r="G348" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="349" spans="1:7">
       <c r="A349" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B349">
         <v>204</v>
@@ -9077,12 +9023,12 @@
         <v>204</v>
       </c>
       <c r="G349" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="350" spans="1:7">
       <c r="A350" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B350">
         <v>205</v>
@@ -9094,12 +9040,12 @@
         <v>205</v>
       </c>
       <c r="G350" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="351" spans="1:7">
       <c r="A351" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B351">
         <v>206</v>
@@ -9111,12 +9057,12 @@
         <v>206</v>
       </c>
       <c r="G351" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="352" spans="1:7">
       <c r="A352" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B352">
         <v>207</v>
@@ -9128,12 +9074,12 @@
         <v>207</v>
       </c>
       <c r="G352" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="353" spans="1:7">
       <c r="A353" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B353">
         <v>208</v>
@@ -9145,12 +9091,12 @@
         <v>208</v>
       </c>
       <c r="G353" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="354" spans="1:7">
       <c r="A354" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B354">
         <v>209</v>
@@ -9162,12 +9108,12 @@
         <v>209</v>
       </c>
       <c r="G354" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="355" spans="1:7">
       <c r="A355" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B355">
         <v>210</v>
@@ -9179,12 +9125,12 @@
         <v>210</v>
       </c>
       <c r="G355" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="356" spans="1:7">
       <c r="A356" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B356">
         <v>211</v>
@@ -9196,12 +9142,12 @@
         <v>211</v>
       </c>
       <c r="G356" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="357" spans="1:7">
       <c r="A357" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B357">
         <v>212</v>
@@ -9213,12 +9159,12 @@
         <v>212</v>
       </c>
       <c r="G357" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="358" spans="1:7">
       <c r="A358" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B358">
         <v>213</v>
@@ -9230,12 +9176,12 @@
         <v>213</v>
       </c>
       <c r="G358" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="359" spans="1:7">
       <c r="A359" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B359">
         <v>214</v>
@@ -9247,12 +9193,12 @@
         <v>214</v>
       </c>
       <c r="G359" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="360" spans="1:7">
       <c r="A360" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B360">
         <v>215</v>
@@ -9264,12 +9210,12 @@
         <v>215</v>
       </c>
       <c r="G360" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="361" spans="1:7">
       <c r="A361" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B361">
         <v>216</v>
@@ -9281,12 +9227,12 @@
         <v>216</v>
       </c>
       <c r="G361" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="362" spans="1:7">
       <c r="A362" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B362">
         <v>217</v>
@@ -9298,12 +9244,12 @@
         <v>217</v>
       </c>
       <c r="G362" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="363" spans="1:7">
       <c r="A363" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B363">
         <v>218</v>
@@ -9315,12 +9261,12 @@
         <v>218</v>
       </c>
       <c r="G363" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="364" spans="1:7">
       <c r="A364" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B364">
         <v>219</v>
@@ -9332,12 +9278,12 @@
         <v>219</v>
       </c>
       <c r="G364" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="365" spans="1:7">
       <c r="A365" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B365">
         <v>220</v>
@@ -9349,12 +9295,12 @@
         <v>220</v>
       </c>
       <c r="G365" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="366" spans="1:7">
       <c r="A366" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B366">
         <v>221</v>
@@ -9366,12 +9312,12 @@
         <v>221</v>
       </c>
       <c r="G366" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="367" spans="1:7">
       <c r="A367" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B367">
         <v>222</v>
@@ -9383,12 +9329,12 @@
         <v>222</v>
       </c>
       <c r="G367" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="368" spans="1:7">
       <c r="A368" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B368">
         <v>223</v>
@@ -9400,12 +9346,12 @@
         <v>223</v>
       </c>
       <c r="G368" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="369" spans="1:7">
       <c r="A369" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B369">
         <v>224</v>
@@ -9417,12 +9363,12 @@
         <v>224</v>
       </c>
       <c r="G369" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="370" spans="1:7">
       <c r="A370" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B370">
         <v>225</v>
@@ -9434,12 +9380,12 @@
         <v>225</v>
       </c>
       <c r="G370" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="371" spans="1:7">
       <c r="A371" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B371">
         <v>226</v>
@@ -9451,12 +9397,12 @@
         <v>226</v>
       </c>
       <c r="G371" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="372" spans="1:7">
       <c r="A372" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B372">
         <v>227</v>
@@ -9468,12 +9414,12 @@
         <v>227</v>
       </c>
       <c r="G372" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="373" spans="1:7">
       <c r="A373" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B373">
         <v>228</v>
@@ -9485,12 +9431,12 @@
         <v>228</v>
       </c>
       <c r="G373" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="374" spans="1:7">
       <c r="A374" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B374">
         <v>229</v>
@@ -9502,12 +9448,12 @@
         <v>229</v>
       </c>
       <c r="G374" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="375" spans="1:7">
       <c r="A375" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B375">
         <v>230</v>
@@ -9519,12 +9465,12 @@
         <v>230</v>
       </c>
       <c r="G375" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="376" spans="1:7">
       <c r="A376" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B376">
         <v>231</v>
@@ -9536,12 +9482,12 @@
         <v>231</v>
       </c>
       <c r="G376" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="377" spans="1:7">
       <c r="A377" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B377">
         <v>232</v>
@@ -9553,12 +9499,12 @@
         <v>232</v>
       </c>
       <c r="G377" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="378" spans="1:7">
       <c r="A378" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B378">
         <v>233</v>
@@ -9570,12 +9516,12 @@
         <v>233</v>
       </c>
       <c r="G378" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="379" spans="1:7">
       <c r="A379" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B379">
         <v>234</v>
@@ -9587,12 +9533,12 @@
         <v>234</v>
       </c>
       <c r="G379" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="380" spans="1:7">
       <c r="A380" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B380">
         <v>235</v>
@@ -9604,12 +9550,12 @@
         <v>235</v>
       </c>
       <c r="G380" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="381" spans="1:7">
       <c r="A381" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B381">
         <v>236</v>
@@ -9621,12 +9567,12 @@
         <v>236</v>
       </c>
       <c r="G381" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="382" spans="1:7">
       <c r="A382" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B382">
         <v>237</v>
@@ -9638,12 +9584,12 @@
         <v>237</v>
       </c>
       <c r="G382" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="383" spans="1:7">
       <c r="A383" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B383">
         <v>238</v>
@@ -9655,12 +9601,12 @@
         <v>238</v>
       </c>
       <c r="G383" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="384" spans="1:7">
       <c r="A384" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B384">
         <v>239</v>
@@ -9672,12 +9618,12 @@
         <v>239</v>
       </c>
       <c r="G384" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="385" spans="1:7">
       <c r="A385" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B385">
         <v>240</v>
@@ -9689,12 +9635,12 @@
         <v>240</v>
       </c>
       <c r="G385" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="386" spans="1:7">
       <c r="A386" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B386">
         <v>241</v>
@@ -9706,12 +9652,12 @@
         <v>241</v>
       </c>
       <c r="G386" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="387" spans="1:7">
       <c r="A387" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B387">
         <v>242</v>
@@ -9723,12 +9669,12 @@
         <v>242</v>
       </c>
       <c r="G387" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="388" spans="1:7">
       <c r="A388" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B388">
         <v>243</v>
@@ -9740,12 +9686,12 @@
         <v>243</v>
       </c>
       <c r="G388" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="389" spans="1:7">
       <c r="A389" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B389">
         <v>244</v>
@@ -9757,12 +9703,12 @@
         <v>244</v>
       </c>
       <c r="G389" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="390" spans="1:7">
       <c r="A390" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B390">
         <v>245</v>
@@ -9774,12 +9720,12 @@
         <v>245</v>
       </c>
       <c r="G390" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="391" spans="1:7">
       <c r="A391" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B391">
         <v>246</v>
@@ -9791,12 +9737,12 @@
         <v>246</v>
       </c>
       <c r="G391" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="392" spans="1:7">
       <c r="A392" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B392">
         <v>247</v>
@@ -9808,12 +9754,12 @@
         <v>247</v>
       </c>
       <c r="G392" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="393" spans="1:7">
       <c r="A393" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B393">
         <v>248</v>
@@ -9825,12 +9771,12 @@
         <v>248</v>
       </c>
       <c r="G393" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="394" spans="1:7">
       <c r="A394" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B394">
         <v>249</v>
@@ -9842,12 +9788,12 @@
         <v>249</v>
       </c>
       <c r="G394" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="395" spans="1:7">
       <c r="A395" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B395">
         <v>250</v>
@@ -9859,12 +9805,12 @@
         <v>250</v>
       </c>
       <c r="G395" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="396" spans="1:7">
       <c r="A396" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B396">
         <v>251</v>
@@ -9876,12 +9822,12 @@
         <v>251</v>
       </c>
       <c r="G396" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="397" spans="1:7">
       <c r="A397" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B397">
         <v>252</v>
@@ -9893,12 +9839,12 @@
         <v>252</v>
       </c>
       <c r="G397" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="398" spans="1:7">
       <c r="A398" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B398">
         <v>253</v>
@@ -9910,12 +9856,12 @@
         <v>253</v>
       </c>
       <c r="G398" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="399" spans="1:7">
       <c r="A399" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B399">
         <v>254</v>
@@ -9927,7 +9873,7 @@
         <v>254</v>
       </c>
       <c r="G399" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -9942,8 +9888,8 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -9954,24 +9900,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B2" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C2" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>

--- a/LF/PreTAS/Mozambique/November 2021/mz_lf_pretas_1_site_202111.xlsx
+++ b/LF/PreTAS/Mozambique/November 2021/mz_lf_pretas_1_site_202111.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="349">
   <si>
     <t>type</t>
   </si>
@@ -66,6 +66,36 @@
     <t>choice_filter</t>
   </si>
   <si>
+    <t>select_one recorder_list</t>
+  </si>
+  <si>
+    <t>c_recorder</t>
+  </si>
+  <si>
+    <t>Enter Recorder ID</t>
+  </si>
+  <si>
+    <t>If you are the only recorder on your team, this may be called a "team ID". Recorder ID is the 2-digit code assigned to you or your team.</t>
+  </si>
+  <si>
+    <t>Insira o código do gravador</t>
+  </si>
+  <si>
+    <t>Se você for o único registrador/inqueridor na sua equipe, isso pode ser chamado de "ID de equipe". ID do inqueridor é o código de 2 dígitos fornecido a você ou à sua equipe.</t>
+  </si>
+  <si>
+    <t>regex(.,'^[0-9]{2}$')</t>
+  </si>
+  <si>
+    <t>The code must be a two-digit number between 9 and 100</t>
+  </si>
+  <si>
+    <t>O código deve ser um número de dois dígitos entre 9 e 100</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>select_one eu_list</t>
   </si>
   <si>
@@ -78,51 +108,21 @@
     <t>Selecione o Província</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>select_one recorder_list</t>
-  </si>
-  <si>
-    <t>c_recorder</t>
-  </si>
-  <si>
-    <t>Enter Recorder ID</t>
-  </si>
-  <si>
-    <t>If you are the only recorder on your team, this may be called a "team ID". Recorder ID is the 2-digit code assigned to you or your team.</t>
-  </si>
-  <si>
-    <t>Insira o código do gravador</t>
-  </si>
-  <si>
-    <t>Se você for o único registrador/inqueridor na sua equipe, isso pode ser chamado de "ID de equipe". ID do inqueridor é o código de 2 dígitos fornecido a você ou à sua equipe.</t>
-  </si>
-  <si>
-    <t>regex(.,'^[0-9]{2}$')</t>
-  </si>
-  <si>
-    <t>The code must be a two-digit number between 9 and 100</t>
-  </si>
-  <si>
-    <t>O código deve ser um número de dois dígitos entre 9 e 100</t>
+    <t>select_one district_list</t>
+  </si>
+  <si>
+    <t>c_district</t>
+  </si>
+  <si>
+    <t>Select your district</t>
+  </si>
+  <si>
+    <t>Selecione o distrito</t>
   </si>
   <si>
     <t>eu_list = ${c_province}</t>
   </si>
   <si>
-    <t>select_one district_list</t>
-  </si>
-  <si>
-    <t>c_district</t>
-  </si>
-  <si>
-    <t>Select your district</t>
-  </si>
-  <si>
-    <t>Selecione o distrito</t>
-  </si>
-  <si>
     <t>select_one site_names</t>
   </si>
   <si>
@@ -1056,10 +1056,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(Nov 2021) Pre-TAS FL - 1. Conglomerado V2.1</t>
-  </si>
-  <si>
-    <t>mz_lf_pretas_1_site_202111_v2_1</t>
+    <t>(Nov 2021) Pre-TAS FL - 1. Conglomerado V2.2</t>
+  </si>
+  <si>
+    <t>mz_lf_pretas_1_site_202111_v2_2</t>
   </si>
   <si>
     <t>Portuguese</t>
@@ -1115,14 +1115,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1136,15 +1128,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1152,38 +1137,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1197,7 +1159,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1208,6 +1170,14 @@
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1226,8 +1196,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1241,26 +1227,40 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1297,7 +1297,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1309,43 +1315,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1363,7 +1333,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1375,7 +1399,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1387,19 +1411,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1411,67 +1453,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1510,30 +1510,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1559,11 +1535,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1583,165 +1565,183 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2165,7 +2165,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P3" sqref="P3"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2237,7 +2237,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="1:16">
+    <row r="2" s="3" customFormat="1" ht="42.75" spans="1:16">
       <c r="A2" s="23" t="s">
         <v>16</v>
       </c>
@@ -2247,77 +2247,75 @@
       <c r="C2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="24"/>
+      <c r="D2" s="24" t="s">
+        <v>19</v>
+      </c>
       <c r="E2" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
+        <v>20</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
       <c r="M2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="23"/>
-    </row>
-    <row r="3" s="3" customFormat="1" ht="42.75" spans="1:16">
+        <v>25</v>
+      </c>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="10"/>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:16">
       <c r="A3" s="23" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>24</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D3" s="24"/>
       <c r="E3" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="30"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="23"/>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:16">
       <c r="A4" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="24" t="s">
         <v>32</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>33</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="10"/>
@@ -2327,12 +2325,12 @@
       <c r="K4" s="23"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:16">
@@ -2361,7 +2359,7 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
@@ -2391,7 +2389,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
@@ -2421,7 +2419,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
@@ -2449,7 +2447,7 @@
       <c r="K8" s="23"/>
       <c r="L8" s="23"/>
       <c r="M8" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N8" s="23"/>
       <c r="O8" s="23"/>
@@ -2479,7 +2477,7 @@
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
@@ -2513,7 +2511,7 @@
       </c>
       <c r="L10" s="23"/>
       <c r="M10" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N10" s="23"/>
       <c r="O10" s="23"/>
